--- a/information/raw_databases/SERNAPESCA/landings/landings_fabric_vessels_international_waters_per_species_region_month_2017.xlsx
+++ b/information/raw_databases/SERNAPESCA/landings/landings_fabric_vessels_international_waters_per_species_region_month_2017.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/main-fisheries-chile/information/raw_databases/SERNAPESCA/landings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="19440" windowHeight="12340"/>
   </bookViews>
   <sheets>
-    <sheet name="bf_ai_región" sheetId="1" r:id="rId1"/>
+    <sheet name="bf_ai_region" sheetId="1" r:id="rId1"/>
     <sheet name="bf_ai_mes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bf_ai_mes!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">bf_ai_mes!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">bf_ai_región!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">bf_ai_region!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -179,13 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,17 +293,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -329,10 +325,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,7 +337,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -356,7 +352,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -475,12 +471,6 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -489,7 +479,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,12 +555,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -594,12 +590,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -803,85 +799,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -899,7 +895,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -952,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1002,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>46</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
@@ -1168,14 +1164,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>19</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -1196,7 +1192,7 @@
       <c r="I10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="43">
         <v>2</v>
       </c>
       <c r="K10" s="37" t="s">
@@ -1222,7 +1218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>47</v>
       </c>
@@ -1276,7 +1272,7 @@
         <v>10534</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>41</v>
       </c>
@@ -1330,7 +1326,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>42</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>48</v>
       </c>
@@ -1492,7 +1488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="36"/>
       <c r="C16" s="23"/>
@@ -1511,7 +1507,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="23"/>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -1584,7 +1580,7 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" spans="1:17" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1703,7 @@
         <v>17241</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1761,7 +1757,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>38</v>
       </c>
@@ -1869,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>39</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>18401</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -1970,76 +1966,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-    </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2054,7 +2050,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2098,7 +2094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
@@ -2143,7 +2139,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
@@ -2233,7 +2229,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>33</v>
       </c>
@@ -2278,52 +2274,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="46">
+      <c r="B10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="44">
         <v>2</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="46">
+      <c r="I10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="44">
         <v>8</v>
       </c>
-      <c r="K10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="46">
+      <c r="K10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="44">
         <v>11</v>
       </c>
-      <c r="M10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="46">
         <f t="shared" ref="N10" si="1">SUM(B10:M10)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>47</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>10534</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>41</v>
       </c>
@@ -2413,7 +2409,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>42</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>43</v>
       </c>
@@ -2503,7 +2499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>48</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -2564,7 +2560,7 @@
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -2609,7 +2605,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="12" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2625,7 +2621,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>17241</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -2772,7 +2768,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>38</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>39</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>18401</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
